--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd22-Ptprc.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd22-Ptprc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cd22</t>
+  </si>
+  <si>
+    <t>Ptprc</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cd22</t>
-  </si>
-  <si>
-    <t>Ptprc</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1762576666666666</v>
+        <v>15.40797466666667</v>
       </c>
       <c r="H2">
-        <v>0.5287729999999999</v>
+        <v>46.223924</v>
       </c>
       <c r="I2">
-        <v>0.0120542800396006</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.0120542800396006</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1546356666666667</v>
+        <v>0.467036</v>
       </c>
       <c r="N2">
-        <v>0.463907</v>
+        <v>1.401108</v>
       </c>
       <c r="O2">
-        <v>0.0006541814359458435</v>
+        <v>0.001972893265924874</v>
       </c>
       <c r="P2">
-        <v>0.0006541814359458435</v>
+        <v>0.001972893265924874</v>
       </c>
       <c r="Q2">
-        <v>0.02725572179011111</v>
+        <v>7.196078856421333</v>
       </c>
       <c r="R2">
-        <v>0.245301496111</v>
+        <v>64.76470970779199</v>
       </c>
       <c r="S2">
-        <v>7.885686225599243E-06</v>
+        <v>0.001972893265924874</v>
       </c>
       <c r="T2">
-        <v>7.885686225599243E-06</v>
+        <v>0.001972893265924874</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1762576666666666</v>
+        <v>15.40797466666667</v>
       </c>
       <c r="H3">
-        <v>0.5287729999999999</v>
+        <v>46.223924</v>
       </c>
       <c r="I3">
-        <v>0.0120542800396006</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.0120542800396006</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>0.976031</v>
       </c>
       <c r="O3">
-        <v>0.001376356384162467</v>
+        <v>0.001374344438283074</v>
       </c>
       <c r="P3">
-        <v>0.001376356384162467</v>
+        <v>0.001374344438283074</v>
       </c>
       <c r="Q3">
-        <v>0.05734431555144443</v>
+        <v>5.012886973960444</v>
       </c>
       <c r="R3">
-        <v>0.5160988399629999</v>
+        <v>45.115982765644</v>
       </c>
       <c r="S3">
-        <v>1.659098528898649E-05</v>
+        <v>0.001374344438283074</v>
       </c>
       <c r="T3">
-        <v>1.659098528898649E-05</v>
+        <v>0.001374344438283074</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>15.40797466666667</v>
+      </c>
+      <c r="H4">
+        <v>46.223924</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.1762576666666666</v>
-      </c>
-      <c r="H4">
-        <v>0.5287729999999999</v>
-      </c>
-      <c r="I4">
-        <v>0.0120542800396006</v>
-      </c>
-      <c r="J4">
-        <v>0.0120542800396006</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>3.999992666666667</v>
+        <v>0.02089333333333333</v>
       </c>
       <c r="N4">
-        <v>11.999978</v>
+        <v>0.06268</v>
       </c>
       <c r="O4">
-        <v>0.01692184605828007</v>
+        <v>8.825939892440207E-05</v>
       </c>
       <c r="P4">
-        <v>0.01692184605828007</v>
+        <v>8.825939892440207E-05</v>
       </c>
       <c r="Q4">
-        <v>0.7050293741104444</v>
+        <v>0.3219239507022222</v>
       </c>
       <c r="R4">
-        <v>6.345264366994</v>
+        <v>2.89731555632</v>
       </c>
       <c r="S4">
-        <v>0.0002039806711735196</v>
+        <v>8.825939892440207E-05</v>
       </c>
       <c r="T4">
-        <v>0.0002039806711735196</v>
+        <v>8.825939892440207E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1762576666666666</v>
+        <v>15.40797466666667</v>
       </c>
       <c r="H5">
-        <v>0.5287729999999999</v>
+        <v>46.223924</v>
       </c>
       <c r="I5">
-        <v>0.0120542800396006</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.0120542800396006</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>231.9004236666667</v>
+        <v>235.9131673333333</v>
       </c>
       <c r="N5">
-        <v>695.701271</v>
+        <v>707.739502</v>
       </c>
       <c r="O5">
-        <v>0.9810476161216116</v>
+        <v>0.9965645028968676</v>
       </c>
       <c r="P5">
-        <v>0.9810476161216116</v>
+        <v>0.9965645028968676</v>
       </c>
       <c r="Q5">
-        <v>40.87422757449811</v>
+        <v>3634.944105805094</v>
       </c>
       <c r="R5">
-        <v>367.868048170483</v>
+        <v>32714.49695224585</v>
       </c>
       <c r="S5">
-        <v>0.0118258226969125</v>
+        <v>0.9965645028968676</v>
       </c>
       <c r="T5">
-        <v>0.0118258226969125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>14.445741</v>
-      </c>
-      <c r="H6">
-        <v>43.337223</v>
-      </c>
-      <c r="I6">
-        <v>0.9879457199603994</v>
-      </c>
-      <c r="J6">
-        <v>0.9879457199603994</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.1546356666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.463907</v>
-      </c>
-      <c r="O6">
-        <v>0.0006541814359458435</v>
-      </c>
-      <c r="P6">
-        <v>0.0006541814359458435</v>
-      </c>
-      <c r="Q6">
-        <v>2.233826790029</v>
-      </c>
-      <c r="R6">
-        <v>20.104441110261</v>
-      </c>
-      <c r="S6">
-        <v>0.0006462957497202443</v>
-      </c>
-      <c r="T6">
-        <v>0.0006462957497202443</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>14.445741</v>
-      </c>
-      <c r="H7">
-        <v>43.337223</v>
-      </c>
-      <c r="I7">
-        <v>0.9879457199603994</v>
-      </c>
-      <c r="J7">
-        <v>0.9879457199603994</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.3253436666666666</v>
-      </c>
-      <c r="N7">
-        <v>0.976031</v>
-      </c>
-      <c r="O7">
-        <v>0.001376356384162467</v>
-      </c>
-      <c r="P7">
-        <v>0.001376356384162467</v>
-      </c>
-      <c r="Q7">
-        <v>4.699830344656999</v>
-      </c>
-      <c r="R7">
-        <v>42.298473101913</v>
-      </c>
-      <c r="S7">
-        <v>0.00135976539887348</v>
-      </c>
-      <c r="T7">
-        <v>0.00135976539887348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>14.445741</v>
-      </c>
-      <c r="H8">
-        <v>43.337223</v>
-      </c>
-      <c r="I8">
-        <v>0.9879457199603994</v>
-      </c>
-      <c r="J8">
-        <v>0.9879457199603994</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>3.999992666666667</v>
-      </c>
-      <c r="N8">
-        <v>11.999978</v>
-      </c>
-      <c r="O8">
-        <v>0.01692184605828007</v>
-      </c>
-      <c r="P8">
-        <v>0.01692184605828007</v>
-      </c>
-      <c r="Q8">
-        <v>57.78285806456601</v>
-      </c>
-      <c r="R8">
-        <v>520.0457225810941</v>
-      </c>
-      <c r="S8">
-        <v>0.01671786538710655</v>
-      </c>
-      <c r="T8">
-        <v>0.01671786538710655</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>14.445741</v>
-      </c>
-      <c r="H9">
-        <v>43.337223</v>
-      </c>
-      <c r="I9">
-        <v>0.9879457199603994</v>
-      </c>
-      <c r="J9">
-        <v>0.9879457199603994</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>231.9004236666667</v>
-      </c>
-      <c r="N9">
-        <v>695.701271</v>
-      </c>
-      <c r="O9">
-        <v>0.9810476161216116</v>
-      </c>
-      <c r="P9">
-        <v>0.9810476161216116</v>
-      </c>
-      <c r="Q9">
-        <v>3349.973458078937</v>
-      </c>
-      <c r="R9">
-        <v>30149.76112271044</v>
-      </c>
-      <c r="S9">
-        <v>0.9692217934246991</v>
-      </c>
-      <c r="T9">
-        <v>0.9692217934246991</v>
+        <v>0.9965645028968676</v>
       </c>
     </row>
   </sheetData>
